--- a/KAFD_기술자료.xlsx
+++ b/KAFD_기술자료.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSPsource\KAFD\AFD_C28\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C0A5A7-D955-4A85-BB0D-C97EE104D7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F09A427-FEA1-4332-8412-CA1B24CBD36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="2580" windowWidth="23715" windowHeight="11760" xr2:uid="{74CBD5CD-8F50-4BE4-874B-8427069D34BB}"/>
+    <workbookView xWindow="4140" yWindow="1500" windowWidth="23715" windowHeight="11760" activeTab="1" xr2:uid="{74CBD5CD-8F50-4BE4-874B-8427069D34BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="ADC" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="ADC" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>XTAL OSC</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -93,6 +95,71 @@
   </si>
   <si>
     <t>s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>System CLK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Periode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM Periode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1Byte</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2Byte</t>
+  </si>
+  <si>
+    <t>3Byte</t>
+  </si>
+  <si>
+    <t>4Byte</t>
+  </si>
+  <si>
+    <t>5Byte</t>
+  </si>
+  <si>
+    <t>1word</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2word</t>
+  </si>
+  <si>
+    <t>3word</t>
+  </si>
+  <si>
+    <t>4word</t>
+  </si>
+  <si>
+    <t>ETX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xfe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xa5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x08</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +232,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -183,6 +250,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -548,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E22C17-C403-48FF-8430-C9EBBEF8FB61}">
-  <dimension ref="B3:H14"/>
+  <dimension ref="B3:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -633,14 +703,20 @@
         <f>1/500000</f>
         <v>1.9999999999999999E-6</v>
       </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
       <c r="D12" s="5">
         <f>1/H7</f>
         <v>5.0000000000000001E-9</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
       <c r="D13">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
@@ -648,13 +724,21 @@
         <f>1/0.000003</f>
         <v>333333.33333333331</v>
       </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
       <c r="D14">
         <f>D12*D13</f>
-        <v>5.0000000000000004E-6</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="E14">
         <f>D14*4</f>
-        <v>2.0000000000000002E-5</v>
+        <v>1.9999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>8.0000000000000007E-5</v>
       </c>
     </row>
   </sheetData>
@@ -665,6 +749,135 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09FA0D8-551C-48E4-AF49-FF56964C4A6B}">
+  <dimension ref="B2:M4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC31606-CF69-45D7-BACC-9B8D874F8599}">
+  <dimension ref="B5:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f>D5*C5</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f>D6*C6</f>
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4834640-F72B-40AC-820F-00DA76A4577B}">
   <dimension ref="B4:X8"/>
   <sheetViews>

--- a/KAFD_기술자료.xlsx
+++ b/KAFD_기술자료.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSPsource\KAFD\AFD_C28\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F09A427-FEA1-4332-8412-CA1B24CBD36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9BCBC8-2BD8-46D4-9022-A1930B38F8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="1500" windowWidth="23715" windowHeight="11760" activeTab="1" xr2:uid="{74CBD5CD-8F50-4BE4-874B-8427069D34BB}"/>
+    <workbookView xWindow="1298" yWindow="1298" windowWidth="26729" windowHeight="13125" activeTab="1" xr2:uid="{74CBD5CD-8F50-4BE4-874B-8427069D34BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>XTAL OSC</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -160,6 +160,18 @@
   </si>
   <si>
     <t>0x08</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 수집량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 단위로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2초~4초</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -750,10 +762,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09FA0D8-551C-48E4-AF49-FF56964C4A6B}">
-  <dimension ref="B2:M4"/>
+  <dimension ref="B2:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="J2" sqref="J2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -817,14 +829,27 @@
         <v>31</v>
       </c>
     </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KAFD_기술자료.xlsx
+++ b/KAFD_기술자료.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSPsource\KAFD\AFD_C28\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9BCBC8-2BD8-46D4-9022-A1930B38F8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DF65C0-70C6-40B4-8EE1-45456FB5BC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1298" yWindow="1298" windowWidth="26729" windowHeight="13125" activeTab="1" xr2:uid="{74CBD5CD-8F50-4BE4-874B-8427069D34BB}"/>
+    <workbookView xWindow="-28455" yWindow="3975" windowWidth="43200" windowHeight="11385" activeTab="1" xr2:uid="{74CBD5CD-8F50-4BE4-874B-8427069D34BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="77">
   <si>
     <t>XTAL OSC</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -159,19 +159,177 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0x08</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 수집량</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간 단위로</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2초~4초</t>
+    <t>0x00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC-&gt;MCU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 전송 모드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5word</t>
+  </si>
+  <si>
+    <t>6word</t>
+  </si>
+  <si>
+    <t>6Byte</t>
+  </si>
+  <si>
+    <t>7Byte</t>
+  </si>
+  <si>
+    <t>8Byte</t>
+  </si>
+  <si>
+    <t>CRC8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x5a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>통신 해제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCU-&gt;PC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연결 시도 ACK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data 수집 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리거 데이터 전송 모드 ACK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 수신 완료 ACK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>데이터 수신 중단</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC 데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2 Signal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P4 Signal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P4 Average</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xfd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연결시도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3word</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연결완료 ACK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 전송량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리거 데이터 전송 모드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송 중지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 전송 완료 ACK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">데이터 수집 시간 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2~4초</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">P2 Signal </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~4095</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -244,7 +402,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -265,6 +423,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -762,37 +929,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09FA0D8-551C-48E4-AF49-FF56964C4A6B}">
-  <dimension ref="B2:M8"/>
+  <dimension ref="B1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K2"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="14" width="27.375" customWidth="1"/>
+    <col min="16" max="16" width="17.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I2" s="7"/>
+      <c r="J2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>18</v>
       </c>
@@ -815,35 +998,463 @@
         <v>24</v>
       </c>
       <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>30</v>
       </c>
       <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="P9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
         <v>32</v>
       </c>
-      <c r="I4" t="s">
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="H20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
         <v>35</v>
       </c>
+      <c r="D22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="32">
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -853,6 +1464,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/KAFD_기술자료.xlsx
+++ b/KAFD_기술자료.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSPsource\KAFD\AFD_C28\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DF65C0-70C6-40B4-8EE1-45456FB5BC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E94B7E-2E73-4813-A407-0E3B86D22395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28455" yWindow="3975" windowWidth="43200" windowHeight="11385" activeTab="1" xr2:uid="{74CBD5CD-8F50-4BE4-874B-8427069D34BB}"/>
+    <workbookView xWindow="5190" yWindow="2895" windowWidth="43200" windowHeight="11385" activeTab="3" xr2:uid="{74CBD5CD-8F50-4BE4-874B-8427069D34BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="ADC" sheetId="2" r:id="rId4"/>
+    <sheet name="ADC 수집관련" sheetId="5" r:id="rId4"/>
+    <sheet name="ADC" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="94">
   <si>
     <t>XTAL OSC</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -330,6 +331,74 @@
   </si>
   <si>
     <t>0~4095</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSCLK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tick</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBPRD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Priscale</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수집주기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>샘플링 주기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRISCALE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주파수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 길이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1ms 처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소요 전송속도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1Packet(bit)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1초에</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -337,10 +406,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,8 +435,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,8 +463,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -393,16 +477,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -425,17 +540,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -931,7 +1068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09FA0D8-551C-48E4-AF49-FF56964C4A6B}">
   <dimension ref="B1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
@@ -947,30 +1084,30 @@
       </c>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="7"/>
+      <c r="M2" s="16"/>
       <c r="N2" t="s">
         <v>57</v>
       </c>
@@ -1012,7 +1149,7 @@
       <c r="M3" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="8" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1023,22 +1160,22 @@
       <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
+      <c r="G4" s="16"/>
+      <c r="H4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
+      <c r="I4" s="16"/>
+      <c r="J4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="7"/>
+      <c r="K4" s="16"/>
       <c r="L4" t="s">
         <v>47</v>
       </c>
@@ -1056,22 +1193,22 @@
       <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7" t="s">
+      <c r="I5" s="16"/>
+      <c r="J5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="7"/>
+      <c r="K5" s="16"/>
       <c r="L5" t="s">
         <v>47</v>
       </c>
@@ -1095,22 +1232,22 @@
       <c r="C6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7" t="s">
+      <c r="I6" s="16"/>
+      <c r="J6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="7"/>
+      <c r="K6" s="16"/>
       <c r="L6" t="s">
         <v>47</v>
       </c>
@@ -1128,22 +1265,22 @@
       <c r="C7" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="16"/>
+      <c r="F7" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="16"/>
+      <c r="H7" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7" t="s">
+      <c r="I7" s="16"/>
+      <c r="J7" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="7"/>
+      <c r="K7" s="16"/>
       <c r="L7" t="s">
         <v>47</v>
       </c>
@@ -1161,22 +1298,22 @@
       <c r="C8" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="16"/>
+      <c r="H8" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7" t="s">
+      <c r="I8" s="16"/>
+      <c r="J8" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="7"/>
+      <c r="K8" s="16"/>
       <c r="L8" t="s">
         <v>47</v>
       </c>
@@ -1235,20 +1372,20 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="16"/>
+      <c r="D18" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7" t="s">
+      <c r="E18" s="16"/>
+      <c r="F18" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
@@ -1323,10 +1460,10 @@
       <c r="C22" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="7"/>
+      <c r="E22" s="16"/>
       <c r="F22" t="s">
         <v>47</v>
       </c>
@@ -1344,10 +1481,10 @@
       <c r="C23" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="16"/>
       <c r="F23" t="s">
         <v>47</v>
       </c>
@@ -1365,10 +1502,10 @@
       <c r="C24" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F24" t="s">
@@ -1388,10 +1525,10 @@
       <c r="C25" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F25" t="s">
@@ -1411,10 +1548,10 @@
       <c r="C26" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F26" t="s">
@@ -1429,16 +1566,12 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:G18"/>
@@ -1455,12 +1588,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1473,7 +1610,7 @@
   <dimension ref="B5:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1515,6 +1652,200 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C1CBC6-CBE3-4319-87C2-3F53F0D773A4}">
+  <dimension ref="B6:J23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="1">
+        <v>200000000</v>
+      </c>
+      <c r="C9" s="9">
+        <f>1/B9</f>
+        <v>5.0000000000000001E-9</v>
+      </c>
+      <c r="D9" s="14">
+        <v>4</v>
+      </c>
+      <c r="E9" s="9">
+        <f>C9*D9</f>
+        <v>2E-8</v>
+      </c>
+      <c r="F9" s="11">
+        <v>500</v>
+      </c>
+      <c r="G9" s="9">
+        <f>F9*E9</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H9" s="1">
+        <f>1/G9</f>
+        <v>99999.999999999985</v>
+      </c>
+      <c r="I9" s="10">
+        <f>(G9*1000)</f>
+        <v>0.01</v>
+      </c>
+      <c r="J9">
+        <f>I9*1000</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="1">
+        <v>200000000</v>
+      </c>
+      <c r="C14" s="9">
+        <f>1/B14</f>
+        <v>5.0000000000000001E-9</v>
+      </c>
+      <c r="D14" s="11">
+        <v>4</v>
+      </c>
+      <c r="E14" s="9">
+        <f>C14*D14</f>
+        <v>2E-8</v>
+      </c>
+      <c r="F14" s="1">
+        <f>1/E14</f>
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>460800</v>
+      </c>
+      <c r="C17" s="15">
+        <f>B17/1000</f>
+        <v>460.8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <f>C19*D19</f>
+        <v>48</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="5">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5">
+        <f>B19*B21</f>
+        <v>480</v>
+      </c>
+      <c r="E21" s="1">
+        <f>C21*1000</f>
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D23" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4834640-F72B-40AC-820F-00DA76A4577B}">
   <dimension ref="B4:X8"/>
   <sheetViews>

--- a/KAFD_기술자료.xlsx
+++ b/KAFD_기술자료.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSPsource\KAFD\AFD_C28\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E94B7E-2E73-4813-A407-0E3B86D22395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6C2AB6-D083-4583-ACE4-727D02ABA446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="2895" windowWidth="43200" windowHeight="11385" activeTab="3" xr2:uid="{74CBD5CD-8F50-4BE4-874B-8427069D34BB}"/>
+    <workbookView xWindow="26890" yWindow="2350" windowWidth="21600" windowHeight="11150" activeTab="3" xr2:uid="{74CBD5CD-8F50-4BE4-874B-8427069D34BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1566,12 +1566,16 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:G18"/>
@@ -1588,16 +1592,12 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1655,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C1CBC6-CBE3-4319-87C2-3F53F0D773A4}">
   <dimension ref="B6:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1802,13 +1802,13 @@
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19">
         <f>C19*D19</f>
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="C19">
         <v>8</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
@@ -1824,15 +1824,15 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C21" s="5">
         <f>B19*B21</f>
-        <v>480</v>
+        <v>384</v>
       </c>
       <c r="E21" s="1">
         <f>C21*1000</f>
-        <v>480000</v>
+        <v>384000</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
